--- a/Module_4/Lab_3/CaseFolder/JumpAnalysis/JumpAnalysis.xlsx
+++ b/Module_4/Lab_3/CaseFolder/JumpAnalysis/JumpAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jon/Documents/_Education/Northeastern/PhD_Cybersecurity/CY5210_Information_System_Forensics/Module_4/Lab_3/CaseFolder/JumpAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1107E5-773D-5143-962E-E15A9A0617CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E461F699-A374-4F46-9D72-42D0381E456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2372,8 +2372,8 @@
   </sheetPr>
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="W3" sqref="A3:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6649,12 +6649,12 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="202.1640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="152.83203125" style="13" customWidth="1"/>
     <col min="2" max="4" width="17.1640625" style="13" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="13" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="56.1640625" style="13" hidden="1" customWidth="1"/>
